--- a/data/Analisis_nubosidad_dias_representativos.xlsx
+++ b/data/Analisis_nubosidad_dias_representativos.xlsx
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-10 12:37:53</t>
+          <t>2025-07-11 09:42:13</t>
         </is>
       </c>
     </row>
